--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H2">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I2">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J2">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N2">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q2">
-        <v>6.816999269626523</v>
+        <v>9.898688723213331</v>
       </c>
       <c r="R2">
-        <v>6.816999269626523</v>
+        <v>89.08819850892</v>
       </c>
       <c r="S2">
-        <v>0.004736490617048028</v>
+        <v>0.005650257850220919</v>
       </c>
       <c r="T2">
-        <v>0.004736490617048028</v>
+        <v>0.00565025785022092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H3">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I3">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J3">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q3">
-        <v>496.189160672783</v>
+        <v>607.5514475975488</v>
       </c>
       <c r="R3">
-        <v>496.189160672783</v>
+        <v>5467.96302837794</v>
       </c>
       <c r="S3">
-        <v>0.3447551057074312</v>
+        <v>0.3467956647783914</v>
       </c>
       <c r="T3">
-        <v>0.3447551057074312</v>
+        <v>0.3467956647783914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H4">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I4">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J4">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N4">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q4">
-        <v>125.913675656875</v>
+        <v>170.4969338639173</v>
       </c>
       <c r="R4">
-        <v>125.913675656875</v>
+        <v>1534.472404775256</v>
       </c>
       <c r="S4">
-        <v>0.08748555188557196</v>
+        <v>0.09732113676269544</v>
       </c>
       <c r="T4">
-        <v>0.08748555188557196</v>
+        <v>0.09732113676269545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H5">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I5">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J5">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N5">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q5">
-        <v>3.021660208630607</v>
+        <v>3.639018509071111</v>
       </c>
       <c r="R5">
-        <v>3.021660208630607</v>
+        <v>32.75116658164</v>
       </c>
       <c r="S5">
-        <v>0.002099467032342863</v>
+        <v>0.002077183501059077</v>
       </c>
       <c r="T5">
-        <v>0.002099467032342863</v>
+        <v>0.002077183501059077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H6">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I6">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J6">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q6">
-        <v>219.937685696849</v>
+        <v>223.3519029480829</v>
       </c>
       <c r="R6">
-        <v>219.937685696849</v>
+        <v>2010.167126532747</v>
       </c>
       <c r="S6">
-        <v>0.152813979206346</v>
+        <v>0.1274912140670401</v>
       </c>
       <c r="T6">
-        <v>0.152813979206346</v>
+        <v>0.1274912140670401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H7">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I7">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J7">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N7">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O7">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P7">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q7">
-        <v>55.81170371397796</v>
+        <v>62.67916038370578</v>
       </c>
       <c r="R7">
-        <v>55.81170371397796</v>
+        <v>564.1124434533521</v>
       </c>
       <c r="S7">
-        <v>0.0387782953330438</v>
+        <v>0.03577781137543677</v>
       </c>
       <c r="T7">
-        <v>0.0387782953330438</v>
+        <v>0.03577781137543677</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.23813584966867</v>
+        <v>6.480551000000001</v>
       </c>
       <c r="H8">
-        <v>5.23813584966867</v>
+        <v>19.441653</v>
       </c>
       <c r="I8">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="J8">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N8">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O8">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P8">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q8">
-        <v>5.761696964981064</v>
+        <v>8.470771415773335</v>
       </c>
       <c r="R8">
-        <v>5.761696964981064</v>
+        <v>76.23694274196001</v>
       </c>
       <c r="S8">
-        <v>0.0040032604572073</v>
+        <v>0.004835190198188512</v>
       </c>
       <c r="T8">
-        <v>0.0040032604572073</v>
+        <v>0.004835190198188512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.23813584966867</v>
+        <v>6.480551000000001</v>
       </c>
       <c r="H9">
-        <v>5.23813584966867</v>
+        <v>19.441653</v>
       </c>
       <c r="I9">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="J9">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P9">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q9">
-        <v>419.3768354711153</v>
+        <v>519.910220416587</v>
       </c>
       <c r="R9">
-        <v>419.3768354711153</v>
+        <v>4679.191983749283</v>
       </c>
       <c r="S9">
-        <v>0.2913854568045242</v>
+        <v>0.2967692879795185</v>
       </c>
       <c r="T9">
-        <v>0.2913854568045242</v>
+        <v>0.2967692879795185</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.23813584966867</v>
+        <v>6.480551000000001</v>
       </c>
       <c r="H10">
-        <v>5.23813584966867</v>
+        <v>19.441653</v>
       </c>
       <c r="I10">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="J10">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N10">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O10">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P10">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q10">
-        <v>106.4216694454146</v>
+        <v>145.9022092961254</v>
       </c>
       <c r="R10">
-        <v>106.4216694454146</v>
+        <v>1313.119883665128</v>
       </c>
       <c r="S10">
-        <v>0.07394239295648466</v>
+        <v>0.08328225348744923</v>
       </c>
       <c r="T10">
-        <v>0.07394239295648466</v>
+        <v>0.08328225348744925</v>
       </c>
     </row>
   </sheetData>
